--- a/tests/testthat/Datalist_e.xlsx
+++ b/tests/testthat/Datalist_e.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B884DAD-9888-4625-8419-219C11B20182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630EDF27-8B28-48D4-AC38-65050DC8399E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,28 +105,6 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Allowances</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-(Shift, Sunday and night work plus other extra pay for difficult working conditions, 1/12 of annual total)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -314,6 +292,28 @@
         <family val="2"/>
       </rPr>
       <t>(according to activity rate)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Allowances</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(Shift, Sunday and night work plus other extra pay for difficult working conditions)</t>
     </r>
   </si>
 </sst>
@@ -496,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -540,6 +540,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -566,9 +570,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -606,9 +610,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,9 +645,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,9 +697,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -865,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="12"/>
     </row>
@@ -875,10 +913,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -887,7 +925,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="13">
         <v>1</v>
@@ -928,9 +966,9 @@
     <col min="19" max="23" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="213.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="218.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -948,10 +986,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
@@ -960,43 +998,43 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
